--- a/Входные данные/Список_населенных_пунктов.xlsx
+++ b/Входные данные/Список_населенных_пунктов.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tixon/Desktop/Мои проекты/Сбор_скриншотов/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tixon/Desktop/Мои проекты/Сбор_скриншотов/Входные данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EEF8F4-4AF6-8146-B759-4ED1AFE530E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD72BDA-16DF-524B-9716-881396F8D563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{708F9A14-6B4F-47D3-80E5-158FF6828974}"/>
   </bookViews>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Геообъекты</t>
-  </si>
-  <si>
-    <t>Херсонская обл.</t>
-  </si>
-  <si>
-    <t>Запорожская обл.</t>
-  </si>
-  <si>
-    <t>Ростовская обл.</t>
-  </si>
-  <si>
-    <t>Краснодарский край</t>
-  </si>
-  <si>
-    <t>Брянская область</t>
-  </si>
-  <si>
-    <t>Курская область</t>
-  </si>
-  <si>
-    <t>Белгородская область</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Донецк</t>
   </si>
@@ -66,9 +42,6 @@
     <t>Курск</t>
   </si>
   <si>
-    <t>Сочи</t>
-  </si>
-  <si>
     <t>Севастополь</t>
   </si>
   <si>
@@ -99,9 +72,6 @@
     <t>Славянск</t>
   </si>
   <si>
-    <t>Донецкая область</t>
-  </si>
-  <si>
     <t>Донбасс</t>
   </si>
   <si>
@@ -109,9 +79,6 @@
   </si>
   <si>
     <t>ЛНР</t>
-  </si>
-  <si>
-    <t>Луганская область</t>
   </si>
   <si>
     <t>Населенные_пункты</t>
@@ -531,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6073DAE5-0FF9-4E70-B88E-F075D724FA0A}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -545,225 +512,174 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Входные данные/Список_населенных_пунктов.xlsx
+++ b/Входные данные/Список_населенных_пунктов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tixon/Desktop/Мои проекты/Сбор_скриншотов/Входные данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD72BDA-16DF-524B-9716-881396F8D563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66DE33-3E1C-334C-AC98-CA7AF188BD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{708F9A14-6B4F-47D3-80E5-158FF6828974}"/>
   </bookViews>
@@ -25,48 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Донецк</t>
-  </si>
-  <si>
-    <t>Новороссийск</t>
-  </si>
-  <si>
-    <t>Краснодар</t>
-  </si>
-  <si>
-    <t>Анапа</t>
-  </si>
-  <si>
-    <t>Курск</t>
-  </si>
-  <si>
-    <t>Севастополь</t>
-  </si>
-  <si>
-    <t>Крым</t>
-  </si>
-  <si>
-    <t>Запорожье</t>
-  </si>
-  <si>
-    <t>Энергодар</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Мариуполь</t>
   </si>
   <si>
-    <t>Горловка</t>
-  </si>
-  <si>
     <t>Белгород</t>
-  </si>
-  <si>
-    <t>Ясиноватая</t>
-  </si>
-  <si>
-    <t>Угледар</t>
   </si>
   <si>
     <t>Славянск</t>
@@ -500,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6073DAE5-0FF9-4E70-B88E-F075D724FA0A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,166 +476,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="1"/>
     </row>

--- a/Входные данные/Список_населенных_пунктов.xlsx
+++ b/Входные данные/Список_населенных_пунктов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tixon/Desktop/Мои проекты/Сбор_скриншотов/Входные данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66DE33-3E1C-334C-AC98-CA7AF188BD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD653A8-C030-604B-88AD-18549B53F714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{708F9A14-6B4F-47D3-80E5-158FF6828974}"/>
+    <workbookView xWindow="1600" yWindow="2280" windowWidth="23260" windowHeight="12580" xr2:uid="{708F9A14-6B4F-47D3-80E5-158FF6828974}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
